--- a/imageCreationExcel/back/0901-1/0901-1_3.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_3.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4686621892313624</v>
+        <v>0.9551956344636957</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9238516812146468</v>
+        <v>4.158071430161437</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -520,7 +520,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_C_sharpness0.47_gamma0.92.jpg</t>
+          <t>1_1_sharpness0.96_equalization4.2.jpg</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -539,30 +539,32 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.37330114798606</v>
+        <v>0.2826211437880418</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9311193005015244</v>
+        <v>20.41023606429479</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7.459684854816766</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_7_sharpness0.37_gamma0.93_equalization7.5.jpg</t>
+          <t>2_B_sharpness0.28_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -572,41 +574,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.8260644157602259</v>
+        <v>25.71063786340662</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.561207176271298</v>
+        <v>0.144304118925538</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.8811351687013312</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_2_contrast0.83_equalization9.6.jpg</t>
+          <t>3_B_brightness26.0_sharpness0.14_contrast0.88.jpg</t>
         </is>
       </c>
     </row>
@@ -616,39 +616,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>22.75508747849914</v>
+        <v>0.9350864510242042</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.8757048085560929</v>
+        <v>0.1708735202903758</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.8925574629457144</v>
+        <v>26.96617315445305</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_Q_brightness23.0_gamma0.88_contrast0.89.jpg</t>
+          <t>4_7_gamma0.94_sharpness0.17_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -658,7 +658,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,15 +667,15 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.1336839584187817</v>
+        <v>0.4279763733884787</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.201807035124149</v>
+        <v>0.6097414648346791</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -683,14 +683,14 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8085105599236935</v>
+        <v>1.185652413262488</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_2_sharpness0.13_brightness1.2_contrast0.81.jpg</t>
+          <t>5_9_sharpness0.43_gamma0.61_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -700,24 +700,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.1118786740087898</v>
+        <v>17.43148678400093</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>5.261845687905674</v>
+        <v>0.8951444417782266</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -734,7 +734,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_8_sharpness0.11_brightness5.3.jpg</t>
+          <t>6_I_brightness17.0_gamma0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -744,39 +744,39 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.9730151239300859</v>
+        <v>21.88806857861245</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.5612107600151933</v>
+        <v>0.9531470885974254</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.9805534379635</v>
+        <v>0.56865725269023</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_E_contrast0.97_sharpness0.56_equalization15.0.jpg</t>
+          <t>7_B_brightness22.0_contrast0.95_gamma0.57.jpg</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -795,15 +795,15 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>26.01814526204906</v>
+        <v>19.43977431379847</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.8819388331616858</v>
+        <v>0.9093135898793112</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -820,7 +820,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_0_brightness26.0_contrast0.88.jpg</t>
+          <t>8_J_brightness19.0_gamma0.91.jpg</t>
         </is>
       </c>
     </row>
@@ -830,16 +830,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.4058783603082858</v>
+        <v>0.6696347114899743</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -847,22 +847,24 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>21.73100621054033</v>
+        <v>25.65995102648359</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>0.8491955423125254</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_I_sharpness0.41_brightness22.0_contrast0.85.jpg</t>
+          <t>9_P_gamma0.67_brightness26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -872,39 +874,41 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1670270409884806</v>
+        <v>0.8887592695917563</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9382729225047107</v>
+        <v>13.10022798631983</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>17.51052149650434</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_T_sharpness0.17_gamma0.94_equalization18.0.jpg</t>
+          <t>10_Q_contrast0.89_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -914,39 +918,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.087336814001353</v>
+        <v>0.8462686362438152</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.1021520755487692</v>
+        <v>0.784012249666922</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>13.17335149359547</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_C_gamma1.1_sharpness0.1_equalization13.0.jpg</t>
+          <t>11_7_contrast0.85_gamma0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -956,39 +962,41 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.8911331884652107</v>
+        <v>1.138607601192757</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.08056666505848631</v>
+        <v>2.348736313292465</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8.90754269244793</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_0_gamma0.89_sharpness0.081_equalization8.9.jpg</t>
+          <t>12_Q_contrast1.1_brightness2.3.jpg</t>
         </is>
       </c>
     </row>
@@ -998,7 +1006,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1007,30 +1015,32 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>18.14808118695818</v>
+        <v>2.261992869770311</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.885287472843634</v>
+        <v>0.8869011837074139</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.6674187736538393</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_C_brightness18.0_contrast0.89_gamma0.67.jpg</t>
+          <t>13_T_brightness2.3_gamma0.89.jpg</t>
         </is>
       </c>
     </row>
@@ -1040,16 +1050,16 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.095756616810822</v>
+        <v>16.77622379081733</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1057,22 +1067,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.7505059290784631</v>
+        <v>1.052151747425776</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>28.46028531332086</v>
+        <v>1.156639463881573</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_J_contrast1.1_gamma0.75_equalization28.0.jpg</t>
+          <t>14_1_brightness17.0_gamma1.1_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1082,39 +1092,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2.82626180786739</v>
+        <v>0.7664496251668297</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.04192649810804039</v>
+        <v>1.051986874360589</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.995175476879364</v>
+        <v>27.33469010657848</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_0_brightness2.8_sharpness0.042_contrast1.0.jpg</t>
+          <t>15_2_sharpness0.77_gamma1.1_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1129,36 +1139,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1.179539664700535</v>
+        <v>0.738872600820487</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>21.81850990782632</v>
+        <v>18.95857072991956</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>0.7524543488526401</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_contrast1.2_equalization22.0.jpg</t>
+          <t>16_2_sharpness0.74_brightness19.0_gamma0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1168,7 +1176,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1177,7 +1185,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9541662722397706</v>
+        <v>1.18918483184448</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1185,22 +1193,24 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5955090498555291</v>
+        <v>0.9439280388582139</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>30.1281449309946</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_E_contrast0.95_sharpness0.6_equalization30.0.jpg</t>
+          <t>17_9_contrast1.2_sharpness0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1219,7 +1229,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9384281319454338</v>
+        <v>0.9179017117113603</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1227,7 +1237,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.907183452614667</v>
+        <v>0.9855276608324589</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1244,7 +1254,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_contrast0.94_sharpness0.91.jpg</t>
+          <t>18_T_contrast0.92_sharpness0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1259,36 +1269,34 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9373764224817086</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>28.52543448707059</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F20" t="n">
-        <v>0.0801271016045273</v>
+        <v>22.37226269138133</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5270315967622851</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_brightness29.0_sharpness0.08.jpg</t>
+          <t>19_2_contrast0.94_brightness22.0_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -1298,7 +1306,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1307,15 +1315,15 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.119183205950017</v>
+        <v>1.162334480743922</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>12.24861832665311</v>
+        <v>0.5527143744789297</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1332,7 +1340,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_7_contrast1.1_equalization12.0.jpg</t>
+          <t>20_B_contrast1.2_sharpness0.55.jpg</t>
         </is>
       </c>
     </row>
@@ -1347,19 +1355,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.8616189603740106</v>
+        <v>28.07324302516933</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>24.14002278020264</v>
+        <v>0.6901651796361186</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1367,14 +1375,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.7307867514468391</v>
+        <v>0.9669236064437267</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_contrast0.86_brightness24.0_sharpness0.73.jpg</t>
+          <t>21_2_brightness28.0_gamma0.69_sharpness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1384,39 +1392,41 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.157612369158988</v>
+        <v>0.7880411903682785</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.4257805154837235</v>
+        <v>30.01922848441326</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>12.33014827373069</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_C_contrast1.2_sharpness0.43_equalization12.0.jpg</t>
+          <t>22_E_gamma0.79_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1426,39 +1436,41 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9660190600317613</v>
+        <v>0.9699393993176719</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.062077456277568</v>
+        <v>19.71312139541072</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>27.3417053465087</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_7_sharpness0.97_contrast1.1_equalization27.0.jpg</t>
+          <t>23_P_contrast0.97_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1468,39 +1480,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9385684296494493</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.031168883358335</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>16.10254450095161</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.067942232697748</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H25" t="n">
-        <v>0.8030925130638629</v>
+        <v>4.537365938402447</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_J_brightness16.0_contrast1.1_sharpness0.8.jpg</t>
+          <t>24_P_sharpness0.94_gamma1.0_brightness4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -1510,7 +1522,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1519,7 +1531,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7814080145286707</v>
+        <v>0.7433934126558368</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1527,22 +1539,22 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8164901017422577</v>
+        <v>1.127302925195805</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12.14627239925467</v>
+        <v>0.5972746528350168</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_3_sharpness0.78_contrast0.82_equalization12.0.jpg</t>
+          <t>25_E_sharpness0.74_contrast1.1_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1552,16 +1564,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>25.71971792602096</v>
+        <v>1.014723456241379</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1569,22 +1581,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9317785281828912</v>
+        <v>0.3460337176999778</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.9627738338586462</v>
+        <v>19.77481242331398</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_7_brightness26.0_sharpness0.93_contrast0.96.jpg</t>
+          <t>26_I_gamma1.0_sharpness0.35_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1599,36 +1611,34 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.6304899964598284</v>
+        <v>0.5067892400563961</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.147732550390749</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>19.75980796735981</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H28" t="n">
+        <v>24.93416823469473</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_gamma0.63_equalization20.0.jpg</t>
+          <t>27_S_sharpness0.51_contrast1.1_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1638,41 +1648,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2.631061236129837</v>
+        <v>0.5259141041447134</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9143758575457743</v>
+        <v>0.9766283626060805</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>17.35370592577119</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_2_brightness2.6_gamma0.91.jpg</t>
+          <t>28_8_gamma0.53_contrast0.98_equalization17.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1682,39 +1690,41 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.9586823008209601</v>
+        <v>0.4020025821869869</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5800504373265312</v>
+        <v>7.10007278813927</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>28.8188730256864</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_Q_contrast0.96_gamma0.58_brightness29.0.jpg</t>
+          <t>29_T_sharpness0.4_brightness7.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1724,41 +1734,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.9379821774951019</v>
+        <v>0.5406789212795087</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.176316367233952</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>4.812288427390913</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H31" t="n">
+        <v>5.390790159335998</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_S_contrast0.94_equalization4.8.jpg</t>
+          <t>30_3_gamma0.54_contrast1.2_equalization5.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1768,7 +1776,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1777,30 +1785,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>28.65498750400925</v>
+        <v>18.03093515303624</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.071765182518817</v>
+        <v>0.9303005018011903</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1.146323151677421</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_J_brightness29.0_gamma1.1_contrast1.1.jpg</t>
+          <t>31_I_brightness18.0_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1820,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1819,32 +1829,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.192301145509512</v>
+        <v>1.134341353797927</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>30.84721580372923</v>
+        <v>0.5607745059816119</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.7098271293234322</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_contrast1.2_equalization31.0.jpg</t>
+          <t>32_I_contrast1.1_sharpness0.56_gamma0.71.jpg</t>
         </is>
       </c>
     </row>
@@ -1854,7 +1862,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1863,32 +1871,30 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>5.376146931422197</v>
+        <v>16.14891407991954</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.828940446644632</v>
+        <v>0.3154765820206177</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>0.9429102622193677</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_1_brightness5.4_contrast0.83.jpg</t>
+          <t>33_Q_brightness16.0_sharpness0.32_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1898,41 +1904,39 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1.021190286161147</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>0.6149621344587641</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>8.640890996363447</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>0.6531741226486537</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H35" t="n">
+        <v>20.1210054628475</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_Q_brightness8.6_gamma0.65.jpg</t>
+          <t>34_T_contrast1.0_sharpness0.61_brightness20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1942,24 +1946,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.7729757704882851</v>
+        <v>0.5934754285618755</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.5024037092851154</v>
+        <v>5.413111878170369</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1972,11 +1976,11 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_T_gamma0.77_sharpness0.5.jpg</t>
+          <t>35_P_sharpness0.59_equalization5.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1986,24 +1990,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.7016441327512351</v>
+        <v>0.1630874499069528</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9617013180601621</v>
+        <v>0.6089329779006296</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -2011,14 +2015,14 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>11.29831210474297</v>
+        <v>15.15491433226268</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_gamma0.7_contrast0.96_equalization11.0.jpg</t>
+          <t>36_B_sharpness0.16_gamma0.61_equalization15.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2028,24 +2032,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>23.2816094401482</v>
+        <v>1.083140374255708</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8178054604732765</v>
+        <v>19.25152128072837</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2062,7 +2066,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_P_brightness23.0_gamma0.82.jpg</t>
+          <t>37_2_contrast1.1_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2072,7 +2076,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2081,30 +2085,30 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.1779034044230348</v>
+        <v>0.6718562665422713</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9992938496094063</v>
+        <v>0.7408928146429525</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.5433965755023235</v>
+        <v>21.42782729497053</v>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_T_sharpness0.18_contrast1.0_gamma0.54.jpg</t>
+          <t>38_E_sharpness0.67_gamma0.74_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2114,24 +2118,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.2794869069203876</v>
+        <v>0.9577671750923527</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>25.39033861806592</v>
+        <v>23.82693751515502</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2148,7 +2152,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_0_sharpness0.28_equalization25.0.jpg</t>
+          <t>39_2_gamma0.96_brightness24.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2158,24 +2162,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.868643006489459</v>
+        <v>0.9308302616854303</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.8450565530462182</v>
+        <v>0.7196618880594516</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2183,14 +2187,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15.4446522148458</v>
+        <v>4.31749781197364</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_gamma0.87_sharpness0.85_equalization15.0.jpg</t>
+          <t>40_B_contrast0.93_gamma0.72_equalization4.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2209,15 +2213,15 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9456587446421854</v>
+        <v>0.9857156281902915</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9516823954680805</v>
+        <v>0.8910791307926652</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2225,14 +2229,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>11.36101017007197</v>
+        <v>4.488354861507232</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_gamma0.95_contrast0.95_equalization11.0.jpg</t>
+          <t>41_P_gamma0.99_sharpness0.89_equalization4.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2242,7 +2246,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2251,32 +2255,30 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.055824535738671</v>
+        <v>0.9741447910599852</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>23.67368334452657</v>
+        <v>5.38378431347835</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>0.05230382695496583</v>
       </c>
       <c r="I43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_T_contrast1.1_equalization24.0.jpg</t>
+          <t>42_I_contrast0.97_brightness5.4_sharpness0.052.jpg</t>
         </is>
       </c>
     </row>
@@ -2286,24 +2288,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.9531437251171656</v>
+        <v>1.085584792926193</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>6.841994117248174</v>
+        <v>1.097757751557973</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2320,7 +2322,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_8_sharpness0.95_equalization6.8.jpg</t>
+          <t>43_C_contrast1.1_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2330,41 +2332,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.6174296410287765</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>13.995353540448</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F45" t="n">
-        <v>0.8621277742378091</v>
+        <v>18.09269626504845</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8994803768850049</v>
       </c>
       <c r="I45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_2_brightness14.0_gamma0.86.jpg</t>
+          <t>44_7_gamma0.62_brightness18.0_contrast0.9.jpg</t>
         </is>
       </c>
     </row>
@@ -2374,39 +2374,41 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.140882904524019</v>
+        <v>0.8480871302535082</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.051909997790415</v>
+        <v>0.9284091870499427</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>8.606343569428185</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_contrast1.1_gamma1.1_brightness8.6.jpg</t>
+          <t>45_2_gamma0.85_contrast0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -2416,24 +2418,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.048799711378219</v>
+        <v>28.55707299620728</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>27.50957976955902</v>
+        <v>0.9451334681134396</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2450,7 +2452,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_3_contrast1.0_brightness28.0.jpg</t>
+          <t>46_J_brightness29.0_gamma0.95.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,24 +2462,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23.74896805885068</v>
+        <v>1.078479174059827</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.5066150960782815</v>
+        <v>6.997172536096926</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2494,7 +2496,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_B_brightness24.0_gamma0.51.jpg</t>
+          <t>47_9_contrast1.1_equalization7.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2504,41 +2506,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>21.25829554108695</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>sharpness</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0.2546345738248658</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
       <c r="F49" t="n">
-        <v>1.095360929881141</v>
+        <v>0.242427964843283</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0.5554275900025868</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_S_sharpness0.25_contrast1.1.jpg</t>
+          <t>48_7_brightness21.0_sharpness0.24_gamma0.56.jpg</t>
         </is>
       </c>
     </row>

--- a/imageCreationExcel/back/0901-1/0901-1_3.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_3.xlsx
@@ -486,41 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.9551956344636957</v>
+        <v>0.6885301079161632</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3244824850100601</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>4.158071430161437</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H2" t="n">
+        <v>28.83816149481574</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_sharpness0.96_equalization4.2.jpg</t>
+          <t>1_T_gamma0.69_sharpness0.32_equalization29.0.jpg</t>
         </is>
       </c>
     </row>
@@ -530,24 +528,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.2826211437880418</v>
+        <v>0.6522248250957176</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20.41023606429479</v>
+        <v>0.7759389905006107</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_B_sharpness0.28_equalization20.0.jpg</t>
+          <t>2_C_gamma0.65_sharpness0.78.jpg</t>
         </is>
       </c>
     </row>
@@ -574,39 +572,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>25.71063786340662</v>
+        <v>0.5830733967620502</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.144304118925538</v>
+        <v>1.168332411129796</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8811351687013312</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_B_brightness26.0_sharpness0.14_contrast0.88.jpg</t>
+          <t>3_7_gamma0.58_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -625,30 +625,32 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9350864510242042</v>
+        <v>0.6276806785942147</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.1708735202903758</v>
+        <v>22.94306655818303</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>26.96617315445305</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_7_gamma0.94_sharpness0.17_equalization27.0.jpg</t>
+          <t>4_B_gamma0.63_equalization23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -658,39 +660,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.4279763733884787</v>
+        <v>1.038287391652598</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.6097414648346791</v>
+        <v>0.5005137121398584</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.185652413262488</v>
+        <v>0.9740342997948244</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_9_sharpness0.43_gamma0.61_contrast1.2.jpg</t>
+          <t>5_7_gamma1.0_brightness0.5_sharpness0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -700,41 +702,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>17.43148678400093</v>
+        <v>0.9971362359779457</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.8951444417782266</v>
+        <v>1.038011565437246</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.1883735299984135</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_I_brightness17.0_gamma0.9.jpg</t>
+          <t>6_P_gamma1.0_contrast1.0_sharpness0.19.jpg</t>
         </is>
       </c>
     </row>
@@ -749,11 +749,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>21.88806857861245</v>
+        <v>0.8480796860337242</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -761,22 +761,24 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9531470885974254</v>
+        <v>1.004214401953081</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>0.56865725269023</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_B_brightness22.0_contrast0.95_gamma0.57.jpg</t>
+          <t>7_B_sharpness0.85_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -786,41 +788,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8662354148841284</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>19.43977431379847</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F9" t="n">
-        <v>0.9093135898793112</v>
+        <v>26.9899232398435</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.8731718058226764</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_J_brightness19.0_gamma0.91.jpg</t>
+          <t>8_S_sharpness0.87_brightness27.0_contrast0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -830,41 +830,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6696347114899743</v>
+        <v>5.59201119958462</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25.65995102648359</v>
+        <v>0.2288353134020237</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1.071722310580982</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_P_gamma0.67_brightness26.0.jpg</t>
+          <t>9_8_brightness5.6_sharpness0.23_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -874,16 +872,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8887592695917563</v>
+        <v>0.5164720923578322</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -891,7 +889,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>13.10022798631983</v>
+        <v>12.78821670663133</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -908,7 +906,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_Q_contrast0.89_equalization13.0.jpg</t>
+          <t>10_I_sharpness0.52_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -918,24 +916,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.8462686362438152</v>
+        <v>0.5275817002552771</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.784012249666922</v>
+        <v>0.788940867783516</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -952,7 +950,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_7_contrast0.85_gamma0.78.jpg</t>
+          <t>11_E_gamma0.53_sharpness0.79.jpg</t>
         </is>
       </c>
     </row>
@@ -962,24 +960,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.138607601192757</v>
+        <v>23.86125673184048</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.348736313292465</v>
+        <v>1.033401190643287</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -996,7 +994,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_Q_contrast1.1_brightness2.3.jpg</t>
+          <t>12_9_brightness24.0_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1006,41 +1004,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2.261992869770311</v>
+        <v>0.6311480832685771</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.8869011837074139</v>
+        <v>0.8013583939284207</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10.6627490648112</v>
       </c>
       <c r="I14" t="n">
         <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_T_brightness2.3_gamma0.89.jpg</t>
+          <t>13_1_gamma0.63_contrast0.8_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1050,39 +1046,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6304392421643078</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>16.77622379081733</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F15" t="n">
-        <v>1.052151747425776</v>
+        <v>16.45128776661063</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.156639463881573</v>
+        <v>0.8045180997069249</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_1_brightness17.0_gamma1.1_contrast1.2.jpg</t>
+          <t>14_9_sharpness0.63_brightness16.0_gamma0.8.jpg</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1088,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1101,30 +1097,32 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.7664496251668297</v>
+        <v>0.1873974695701817</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.051986874360589</v>
+        <v>23.45416129016117</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>27.33469010657848</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_2_sharpness0.77_gamma1.1_equalization27.0.jpg</t>
+          <t>15_I_sharpness0.19_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,39 +1132,41 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.738872600820487</v>
+        <v>0.6854284500521198</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>18.95857072991956</v>
+        <v>1.023834904080448</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>0.7524543488526401</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_2_sharpness0.74_brightness19.0_gamma0.75.jpg</t>
+          <t>16_9_gamma0.69_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1176,41 +1176,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.18918483184448</v>
+        <v>14.37884339351405</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9439280388582139</v>
+        <v>0.8054113718582577</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>0.6678452674415174</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_9_contrast1.2_sharpness0.94.jpg</t>
+          <t>17_Q_brightness14.0_gamma0.81_sharpness0.67.jpg</t>
         </is>
       </c>
     </row>
@@ -1220,24 +1218,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.9179017117113603</v>
+        <v>0.7102507772933497</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9855276608324589</v>
+        <v>6.191055632085723</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1254,7 +1252,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_contrast0.92_sharpness0.99.jpg</t>
+          <t>18_9_gamma0.71_brightness6.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1262,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1273,30 +1271,32 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.9373764224817086</v>
+        <v>1.032701168341935</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>22.37226269138133</v>
+        <v>0.6128985223909716</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>0.5270315967622851</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_2_contrast0.94_brightness22.0_gamma0.53.jpg</t>
+          <t>19_7_contrast1.0_gamma0.61.jpg</t>
         </is>
       </c>
     </row>
@@ -1306,41 +1306,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.162334480743922</v>
+        <v>0.5596244032279428</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.5527143744789297</v>
+        <v>1.101749182828238</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>0.6005430239998177</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_B_contrast1.2_sharpness0.55.jpg</t>
+          <t>20_7_sharpness0.56_contrast1.1_gamma0.6.jpg</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1348,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1359,30 +1357,32 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>28.07324302516933</v>
+        <v>9.505498046177502</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6901651796361186</v>
+        <v>0.9889132175207788</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>0.9669236064437267</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_brightness28.0_gamma0.69_sharpness0.97.jpg</t>
+          <t>21_Q_brightness9.5_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -1397,19 +1397,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.7880411903682785</v>
+        <v>6.458532435576779</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>30.01922848441326</v>
+        <v>0.1046959086933977</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_E_gamma0.79_equalization30.0.jpg</t>
+          <t>22_E_brightness6.5_sharpness0.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1436,41 +1436,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.9699393993176719</v>
+        <v>0.5725778431366332</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>19.71312139541072</v>
+        <v>16.89673765672367</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>0.8121334810572587</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_P_contrast0.97_equalization20.0.jpg</t>
+          <t>23_2_sharpness0.57_brightness17.0_contrast0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -1480,39 +1478,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9385684296494493</v>
+        <v>0.5733933408161744</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.031168883358335</v>
+        <v>0.3161143344352308</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>brightness</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4.537365938402447</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_sharpness0.94_gamma1.0_brightness4.5.jpg</t>
+          <t>24_B_gamma0.57_sharpness0.32.jpg</t>
         </is>
       </c>
     </row>
@@ -1522,39 +1522,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.7433934126558368</v>
+        <v>1.134114559463575</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.127302925195805</v>
+        <v>1.199030004633223</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.5972746528350168</v>
+        <v>0.6508400471757891</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_E_sharpness0.74_contrast1.1_gamma0.6.jpg</t>
+          <t>25_7_contrast1.1_brightness1.2_sharpness0.65.jpg</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1573,15 +1573,15 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.014723456241379</v>
+        <v>0.9320048669212873</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.3460337176999778</v>
+        <v>0.8453734916443303</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1589,14 +1589,14 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>19.77481242331398</v>
+        <v>29.76192871094681</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_I_gamma1.0_sharpness0.35_equalization20.0.jpg</t>
+          <t>26_7_gamma0.93_contrast0.85_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1606,39 +1606,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.5067892400563961</v>
+        <v>1.165500057987441</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.147732550390749</v>
+        <v>0.8475137109317824</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>24.93416823469473</v>
+        <v>13.22846895858618</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_S_sharpness0.51_contrast1.1_equalization25.0.jpg</t>
+          <t>27_2_contrast1.2_sharpness0.85_brightness13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.5259141041447134</v>
+        <v>0.7047944376587804</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1665,7 +1665,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9766283626060805</v>
+        <v>0.9506920026054511</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1673,14 +1673,14 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17.35370592577119</v>
+        <v>13.34283395707642</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_8_gamma0.53_contrast0.98_equalization17.0.jpg</t>
+          <t>28_2_gamma0.7_contrast0.95_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1699,32 +1699,30 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.4020025821869869</v>
+        <v>0.6324451916104611</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>7.10007278813927</v>
+        <v>0.6156017815137145</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1.183242114456854</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_T_sharpness0.4_brightness7.1.jpg</t>
+          <t>29_0_sharpness0.63_gamma0.62_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1734,39 +1732,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5406789212795087</v>
+        <v>10.24700570918897</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.176316367233952</v>
+        <v>0.4301404986029631</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>5.390790159335998</v>
+        <v>0.6255446810691135</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_3_gamma0.54_contrast1.2_equalization5.4.jpg</t>
+          <t>30_7_brightness10.0_sharpness0.43_gamma0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -1776,41 +1774,39 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>18.03093515303624</v>
+        <v>1.101533679281396</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9303005018011903</v>
+        <v>0.9506554541990894</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>12.71213586049031</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_I_brightness18.0_contrast0.93.jpg</t>
+          <t>31_S_contrast1.1_sharpness0.95_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1820,39 +1816,41 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1.134341353797927</v>
+        <v>0.1618649995222317</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.5607745059816119</v>
+        <v>1.17552947674527</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>0.7098271293234322</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_I_contrast1.1_sharpness0.56_gamma0.71.jpg</t>
+          <t>32_7_sharpness0.16_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -1862,39 +1860,39 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4320613324589991</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>16.14891407991954</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F34" t="n">
-        <v>0.3154765820206177</v>
+        <v>9.491031666180628</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.9429102622193677</v>
+        <v>0.9716040819406849</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_Q_brightness16.0_sharpness0.32_contrast0.94.jpg</t>
+          <t>33_S_sharpness0.43_brightness9.5_gamma0.97.jpg</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1902,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1913,15 +1911,15 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>1.021190286161147</v>
+        <v>1.030956628693073</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.6149621344587641</v>
+        <v>0.540010264683903</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1929,14 +1927,14 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>20.1210054628475</v>
+        <v>3.940273346619945</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_T_contrast1.0_sharpness0.61_brightness20.0.jpg</t>
+          <t>34_8_contrast1.0_gamma0.54_brightness3.9.jpg</t>
         </is>
       </c>
     </row>
@@ -1946,41 +1944,39 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.5934754285618755</v>
+        <v>0.8021232814088128</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>5.413111878170369</v>
+        <v>29.74610471674803</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>0.7499246336737265</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_sharpness0.59_equalization5.4.jpg</t>
+          <t>35_1_contrast0.8_brightness30.0_sharpness0.75.jpg</t>
         </is>
       </c>
     </row>
@@ -1995,34 +1991,34 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.1630874499069528</v>
+        <v>0.6403949150726402</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.6089329779006296</v>
+        <v>3.749048267928401</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>15.15491433226268</v>
+        <v>0.6361182644551693</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_B_sharpness0.16_gamma0.61_equalization15.0.jpg</t>
+          <t>36_B_gamma0.64_brightness3.7_sharpness0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2032,16 +2028,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.083140374255708</v>
+        <v>0.3443720470516107</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2049,7 +2045,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>19.25152128072837</v>
+        <v>31.04504642101296</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2066,7 +2062,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_2_contrast1.1_equalization19.0.jpg</t>
+          <t>37_7_sharpness0.34_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2076,39 +2072,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.6718562665422713</v>
+        <v>27.48159038838988</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.7408928146429525</v>
+        <v>0.4442498076567967</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>21.42782729497053</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_sharpness0.67_gamma0.74_equalization21.0.jpg</t>
+          <t>38_1_brightness27.0_sharpness0.44.jpg</t>
         </is>
       </c>
     </row>
@@ -2118,24 +2116,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.9577671750923527</v>
+        <v>7.107314124374885</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>23.82693751515502</v>
+        <v>1.118187403663409</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -2152,7 +2150,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_2_gamma0.96_brightness24.0.jpg</t>
+          <t>39_I_brightness7.1_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2162,39 +2160,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9308302616854303</v>
+        <v>12.15479844463049</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.7196618880594516</v>
+        <v>0.7320776819024619</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4.31749781197364</v>
+        <v>0.6224753331979769</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_B_contrast0.93_gamma0.72_equalization4.3.jpg</t>
+          <t>40_8_brightness12.0_sharpness0.73_gamma0.62.jpg</t>
         </is>
       </c>
     </row>
@@ -2209,11 +2207,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.9857156281902915</v>
+        <v>0.9667045978670217</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2221,7 +2219,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.8910791307926652</v>
+        <v>0.3571259871013223</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -2229,14 +2227,14 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>4.488354861507232</v>
+        <v>16.31088564287835</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_P_gamma0.99_sharpness0.89_equalization4.5.jpg</t>
+          <t>41_P_contrast0.97_sharpness0.36_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2246,39 +2244,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9741447910599852</v>
+        <v>1.09168230213691</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5.38378431347835</v>
+        <v>0.8441782729953965</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.05230382695496583</v>
+        <v>8.308715136776041</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_I_contrast0.97_brightness5.4_sharpness0.052.jpg</t>
+          <t>42_S_gamma1.1_contrast0.84_equalization8.3.jpg</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2286,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2297,15 +2295,15 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.085584792926193</v>
+        <v>1.060281271668764</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.097757751557973</v>
+        <v>20.8545114758307</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2318,11 +2316,11 @@
         </is>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_C_contrast1.1_gamma1.1.jpg</t>
+          <t>43_8_contrast1.1_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2332,39 +2330,41 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.6174296410287765</v>
+        <v>1.158341925646529</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>18.09269626504845</v>
+        <v>1.055744202278396</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>0.8994803768850049</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_7_gamma0.62_brightness18.0_contrast0.9.jpg</t>
+          <t>44_9_contrast1.2_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2374,24 +2374,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.8480871302535082</v>
+        <v>1.049229274727575</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9284091870499427</v>
+        <v>7.481446608580946</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2404,11 +2404,11 @@
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_2_gamma0.85_contrast0.93.jpg</t>
+          <t>45_P_contrast1.0_brightness7.5.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,41 +2418,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>28.55707299620728</v>
+        <v>1.053113376014094</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9451334681134396</v>
+        <v>0.6834988176706829</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>25.61721717100485</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_J_brightness29.0_gamma0.95.jpg</t>
+          <t>46_T_contrast1.1_sharpness0.68_equalization26.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2462,7 +2460,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2471,15 +2469,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1.078479174059827</v>
+        <v>0.8715595388494053</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>6.997172536096926</v>
+        <v>1.026538152582283</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2496,7 +2494,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_9_contrast1.1_equalization7.0.jpg</t>
+          <t>47_P_contrast0.87_gamma1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2506,39 +2504,41 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>21.25829554108695</v>
+        <v>0.5467397422318399</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.242427964843283</v>
+        <v>6.128558604490733</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>0.5554275900025868</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_7_brightness21.0_sharpness0.24_gamma0.56.jpg</t>
+          <t>48_2_gamma0.55_equalization6.1.jpg</t>
         </is>
       </c>
     </row>
